--- a/Data/defects_in_MAPbBr3/sample_info.xlsx
+++ b/Data/defects_in_MAPbBr3/sample_info.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovanni/Documents/Python_Libraries/mylib/Data/defects_in_MAPbBr3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075981D2-862E-154A-AD37-D9AF768D6683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0E71DC-C656-8B48-BF27-60D8BF5DF386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{C26AC50F-A531-6740-AF76-4A280DDFF701}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Sample name</t>
   </si>
@@ -70,9 +70,6 @@
     <t>T max (K)</t>
   </si>
   <si>
-    <t>Light soure current (mA)</t>
-  </si>
-  <si>
     <t>Cr</t>
   </si>
   <si>
@@ -98,6 +95,15 @@
   </si>
   <si>
     <t>Light intensity (W/cm2)</t>
+  </si>
+  <si>
+    <t>T range (K)</t>
+  </si>
+  <si>
+    <t>Light source current (mA)</t>
+  </si>
+  <si>
+    <t>Sample age (days)</t>
   </si>
 </sst>
 </file>
@@ -485,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E561E7DD-3721-9549-879B-F206EB3A7F40}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,7 +515,7 @@
     <col min="14" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -535,16 +541,16 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>10</v>
@@ -555,8 +561,14 @@
       <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="P1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1013</v>
       </c>
@@ -567,19 +579,19 @@
         <v>44343</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2">
         <v>460</v>
@@ -596,8 +608,16 @@
       <c r="O2">
         <v>5</v>
       </c>
+      <c r="P2">
+        <f>C2-B2</f>
+        <v>12</v>
+      </c>
+      <c r="Q2">
+        <f>N2-M2</f>
+        <v>270</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1113</v>
       </c>
@@ -608,19 +628,19 @@
         <v>44384</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3">
         <v>475</v>
@@ -637,8 +657,16 @@
       <c r="O3">
         <v>5</v>
       </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P5" si="0">C3-B3</f>
+        <v>30</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q5" si="1">N3-M3</f>
+        <v>222</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1212</v>
       </c>
@@ -649,22 +677,22 @@
         <v>44404</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
       </c>
       <c r="G4">
         <v>8</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4">
         <v>475</v>
@@ -681,8 +709,16 @@
       <c r="O4">
         <v>5</v>
       </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1213</v>
       </c>
@@ -693,22 +729,22 @@
         <v>44411</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
       </c>
       <c r="G5">
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5">
         <v>475</v>
@@ -725,18 +761,26 @@
       <c r="O5">
         <v>5</v>
       </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1411</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1311</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1312</v>
       </c>

--- a/Data/defects_in_MAPbBr3/sample_info.xlsx
+++ b/Data/defects_in_MAPbBr3/sample_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovanni/Documents/Python_Libraries/mylib/Data/defects_in_MAPbBr3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinafoschi/Documents/GitHub/mylib/Data/defects_in_MAPbBr3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0E71DC-C656-8B48-BF27-60D8BF5DF386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3121E91-138C-904F-816B-E0093010E188}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{C26AC50F-A531-6740-AF76-4A280DDFF701}"/>
+    <workbookView xWindow="1160" yWindow="1080" windowWidth="25600" windowHeight="15540" xr2:uid="{C26AC50F-A531-6740-AF76-4A280DDFF701}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>Sample name</t>
   </si>
@@ -104,6 +106,9 @@
   </si>
   <si>
     <t>Sample age (days)</t>
+  </si>
+  <si>
+    <t>±5</t>
   </si>
 </sst>
 </file>
@@ -491,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E561E7DD-3721-9549-879B-F206EB3A7F40}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -785,6 +790,106 @@
         <v>1312</v>
       </c>
     </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1511</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44476</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44483</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9">
+        <v>475</v>
+      </c>
+      <c r="L9">
+        <v>50</v>
+      </c>
+      <c r="M9">
+        <v>250</v>
+      </c>
+      <c r="N9">
+        <v>350</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1512</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44476</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44482</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10">
+        <v>475</v>
+      </c>
+      <c r="L10">
+        <v>50</v>
+      </c>
+      <c r="M10">
+        <v>250</v>
+      </c>
+      <c r="N10">
+        <v>350</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
+        <v>6</v>
+      </c>
+      <c r="Q10">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/defects_in_MAPbBr3/sample_info.xlsx
+++ b/Data/defects_in_MAPbBr3/sample_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinafoschi/Documents/GitHub/mylib/Data/defects_in_MAPbBr3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovanni/Documents/Python_Libraries/mylib/Data/defects_in_MAPbBr3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3121E91-138C-904F-816B-E0093010E188}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FAE37B-EBD3-D74F-A569-944BBEA1114D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1080" windowWidth="25600" windowHeight="15540" xr2:uid="{C26AC50F-A531-6740-AF76-4A280DDFF701}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{C26AC50F-A531-6740-AF76-4A280DDFF701}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>Sample name</t>
   </si>
@@ -106,9 +104,6 @@
   </si>
   <si>
     <t>Sample age (days)</t>
-  </si>
-  <si>
-    <t>±5</t>
   </si>
 </sst>
 </file>
@@ -499,7 +494,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -809,8 +804,8 @@
       <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s">
-        <v>24</v>
+      <c r="G9">
+        <v>5</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -859,8 +854,8 @@
       <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" t="s">
-        <v>24</v>
+      <c r="G10">
+        <v>5</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>

--- a/Data/defects_in_MAPbBr3/sample_info.xlsx
+++ b/Data/defects_in_MAPbBr3/sample_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinafoschi/Documents/GitHub/mylib/Data/defects_in_MAPbBr3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3121E91-138C-904F-816B-E0093010E188}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9E3023-6E3A-0E44-B0C2-F92BCB93540A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1080" windowWidth="25600" windowHeight="15540" xr2:uid="{C26AC50F-A531-6740-AF76-4A280DDFF701}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>Sample name</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>Sample age (days)</t>
-  </si>
-  <si>
-    <t>±5</t>
   </si>
 </sst>
 </file>
@@ -499,7 +496,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -809,8 +806,8 @@
       <c r="F9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s">
-        <v>24</v>
+      <c r="G9">
+        <v>5</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -859,8 +856,8 @@
       <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" t="s">
-        <v>24</v>
+      <c r="G10">
+        <v>5</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>

--- a/Data/defects_in_MAPbBr3/sample_info.xlsx
+++ b/Data/defects_in_MAPbBr3/sample_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinafoschi/Documents/GitHub/mylib/Data/defects_in_MAPbBr3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovanni/Documents/Python_Libraries/mylib/Data/defects_in_MAPbBr3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9E3023-6E3A-0E44-B0C2-F92BCB93540A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE583D93-A4AB-264D-AD2E-FE6CF4DAFE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1080" windowWidth="25600" windowHeight="15540" xr2:uid="{C26AC50F-A531-6740-AF76-4A280DDFF701}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{C26AC50F-A531-6740-AF76-4A280DDFF701}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,51 +32,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Sample name</t>
   </si>
   <si>
-    <t>Growth date</t>
-  </si>
-  <si>
-    <t>Measurement date</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
     <t>Contact type</t>
-  </si>
-  <si>
-    <t>Contact material</t>
-  </si>
-  <si>
-    <t>Bias (V)</t>
-  </si>
-  <si>
-    <t>Light source</t>
-  </si>
-  <si>
-    <t>Excitation wavelength (nm)</t>
-  </si>
-  <si>
-    <t>Heating rate (K/min)</t>
-  </si>
-  <si>
-    <t>T min (K)</t>
-  </si>
-  <si>
-    <t>T max (K)</t>
-  </si>
-  <si>
-    <t>Cr</t>
-  </si>
-  <si>
-    <t>Pristine</t>
-  </si>
-  <si>
-    <t>LED</t>
   </si>
   <si>
     <t>Coplanar</t>
@@ -87,41 +46,16 @@
     <t>Sandwich</t>
   </si>
   <si>
-    <t>Light source model</t>
-  </si>
-  <si>
-    <t>Nichia NSPB500AS</t>
-  </si>
-  <si>
-    <t>OSRAM LBCRBP</t>
-  </si>
-  <si>
-    <t>Light intensity (W/cm2)</t>
-  </si>
-  <si>
-    <t>T range (K)</t>
-  </si>
-  <si>
-    <t>Light source current (mA)</t>
-  </si>
-  <si>
-    <t>Sample age (days)</t>
+    <t>Date growth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -169,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -178,7 +112,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -493,398 +426,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E561E7DD-3721-9549-879B-F206EB3A7F40}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="7.5" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" customWidth="1"/>
-    <col min="13" max="13" width="8.5" customWidth="1"/>
-    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1013</v>
       </c>
       <c r="B2" s="1">
         <v>44331</v>
       </c>
-      <c r="C2" s="1">
-        <v>44343</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2">
-        <v>460</v>
-      </c>
-      <c r="L2">
-        <v>14</v>
-      </c>
-      <c r="M2">
-        <v>80</v>
-      </c>
-      <c r="N2">
-        <v>350</v>
-      </c>
-      <c r="O2">
-        <v>5</v>
-      </c>
-      <c r="P2">
-        <f>C2-B2</f>
-        <v>12</v>
-      </c>
-      <c r="Q2">
-        <f>N2-M2</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1113</v>
       </c>
       <c r="B3" s="1">
         <v>44354</v>
       </c>
-      <c r="C3" s="1">
-        <v>44384</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3">
-        <v>475</v>
-      </c>
-      <c r="L3">
-        <v>180</v>
-      </c>
-      <c r="M3">
-        <v>78</v>
-      </c>
-      <c r="N3">
-        <v>300</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P5" si="0">C3-B3</f>
-        <v>30</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q5" si="1">N3-M3</f>
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1212</v>
       </c>
       <c r="B4" s="1">
         <v>44399</v>
       </c>
-      <c r="C4" s="1">
-        <v>44404</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4">
-        <v>475</v>
-      </c>
-      <c r="L4">
-        <v>180</v>
-      </c>
-      <c r="M4">
-        <v>170</v>
-      </c>
-      <c r="N4">
-        <v>350</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1213</v>
       </c>
       <c r="B5" s="1">
         <v>44400</v>
       </c>
-      <c r="C5" s="1">
-        <v>44411</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5">
-        <v>475</v>
-      </c>
-      <c r="L5">
-        <v>180</v>
-      </c>
-      <c r="M5">
-        <v>170</v>
-      </c>
-      <c r="N5">
-        <v>350</v>
-      </c>
-      <c r="O5">
-        <v>5</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1411</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1311</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1312</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1511</v>
       </c>
       <c r="B9" s="1">
         <v>44476</v>
       </c>
-      <c r="C9" s="1">
-        <v>44483</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9">
-        <v>475</v>
-      </c>
-      <c r="L9">
-        <v>50</v>
-      </c>
-      <c r="M9">
-        <v>250</v>
-      </c>
-      <c r="N9">
-        <v>350</v>
-      </c>
-      <c r="O9">
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="P9">
-        <v>7</v>
-      </c>
-      <c r="Q9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1512</v>
       </c>
       <c r="B10" s="1">
         <v>44476</v>
       </c>
-      <c r="C10" s="1">
-        <v>44482</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10">
-        <v>475</v>
-      </c>
-      <c r="L10">
-        <v>50</v>
-      </c>
-      <c r="M10">
-        <v>250</v>
-      </c>
-      <c r="N10">
-        <v>350</v>
-      </c>
-      <c r="O10">
+      <c r="C10" t="s">
         <v>3</v>
-      </c>
-      <c r="P10">
-        <v>6</v>
-      </c>
-      <c r="Q10">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Data/defects_in_MAPbBr3/sample_info.xlsx
+++ b/Data/defects_in_MAPbBr3/sample_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovanni/Documents/Python_Libraries/mylib/Data/defects_in_MAPbBr3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE583D93-A4AB-264D-AD2E-FE6CF4DAFE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840749FB-555B-6745-A188-05E46221E68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{C26AC50F-A531-6740-AF76-4A280DDFF701}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
